--- a/penjelasan_detail.xlsx
+++ b/penjelasan_detail.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositories\Data_Preparation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{292944D5-20FC-45CD-93BB-6686704C8CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504490A3-0E22-4C4E-AB9A-9A4861A47962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{4D54FE41-69FA-4DD0-9C27-3FB976BDADAB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{4D54FE41-69FA-4DD0-9C27-3FB976BDADAB}"/>
   </bookViews>
   <sheets>
     <sheet name="Membentuk DataFrame" sheetId="1" r:id="rId1"/>
     <sheet name="Deep vs Shallow" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="47">
   <si>
     <t>Pandas</t>
   </si>
@@ -157,13 +158,37 @@
   </si>
   <si>
     <t>shallow copy</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>median</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
+    <t>q2</t>
+  </si>
+  <si>
+    <t>q3</t>
+  </si>
+  <si>
+    <t>modus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +201,13 @@
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,17 +227,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1064,7 +1099,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CFC4D64-BC5D-440E-9DB6-23933EC4E17C}">
   <dimension ref="A3:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -1182,4 +1217,221 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DEDF9F-DBC7-4BBE-9C20-81D542DB0F44}">
+  <dimension ref="B9:N26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D9" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>6500</v>
+      </c>
+      <c r="H9" s="3">
+        <v>6500</v>
+      </c>
+      <c r="I9" s="3">
+        <v>6500</v>
+      </c>
+      <c r="J9" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K9" s="3">
+        <v>8500</v>
+      </c>
+      <c r="L9" s="3">
+        <v>9000</v>
+      </c>
+      <c r="M9" s="3">
+        <v>10500</v>
+      </c>
+      <c r="N9" s="3">
+        <v>150000000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="3">
+        <f>AVERAGE(D9:N9)</f>
+        <v>13642045.454545455</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="3">
+        <f>MEDIAN(D9:N9)</f>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="3">
+        <f>_xlfn.STDEV.S((D9:N9))</f>
+        <v>45224817.327687763</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="3">
+        <f>_xlfn.QUARTILE.INC(D9:N9,1)</f>
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="3">
+        <f>_xlfn.QUARTILE.INC(D9:N9,2)</f>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="3">
+        <f>_xlfn.QUARTILE.INC(D9:N9,3)</f>
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="3">
+        <f>_xlfn.MODE.SNGL(D9:N9)</f>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D19" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E19" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F19" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G19" s="3">
+        <v>6500</v>
+      </c>
+      <c r="H19" s="3">
+        <v>6500</v>
+      </c>
+      <c r="I19" s="3">
+        <v>6500</v>
+      </c>
+      <c r="J19" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K19" s="3">
+        <v>8500</v>
+      </c>
+      <c r="L19" s="3">
+        <v>9000</v>
+      </c>
+      <c r="M19" s="3">
+        <v>10500</v>
+      </c>
+      <c r="N19" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="3">
+        <f>AVERAGE(D19:N19)</f>
+        <v>7045.454545454545</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="3">
+        <f>MEDIAN(D19:N19)</f>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="3">
+        <f>_xlfn.STDEV.S((D19:N19))</f>
+        <v>3850.0295158254662</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="3">
+        <f>_xlfn.QUARTILE.INC(D19:N19,1)</f>
+        <v>5750</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="3">
+        <f>_xlfn.QUARTILE.INC(D19:N19,2)</f>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="3">
+        <f>_xlfn.QUARTILE.INC(D19:N19,3)</f>
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="3">
+        <f>_xlfn.MODE.SNGL(D19:N19)</f>
+        <v>6500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/penjelasan_detail.xlsx
+++ b/penjelasan_detail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repositories\Data_Preparation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504490A3-0E22-4C4E-AB9A-9A4861A47962}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08DBF407-1D21-4201-A9E8-3099B471828B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{4D54FE41-69FA-4DD0-9C27-3FB976BDADAB}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Membentuk DataFrame" sheetId="1" r:id="rId1"/>
     <sheet name="Deep vs Shallow" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="53">
   <si>
     <t>Pandas</t>
   </si>
@@ -179,6 +180,24 @@
   </si>
   <si>
     <t>modus</t>
+  </si>
+  <si>
+    <t>insert</t>
+  </si>
+  <si>
+    <t>if lambda</t>
+  </si>
+  <si>
+    <t>ilham</t>
+  </si>
+  <si>
+    <t>affan</t>
+  </si>
+  <si>
+    <t>Three Sigma</t>
+  </si>
+  <si>
+    <t>Hampel</t>
   </si>
 </sst>
 </file>
@@ -188,7 +207,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,13 +228,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -231,13 +269,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -468,6 +515,979 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>664870</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>10099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>229081</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>17808</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="19" name="Group 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D598896-3CD9-5586-2DA0-CBB55062F27B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7531153" y="10099"/>
+          <a:ext cx="351058" cy="960209"/>
+          <a:chOff x="5236870" y="573316"/>
+          <a:chExt cx="351058" cy="960209"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C31CE08C-1775-FEB0-DEDD-7115A7CA7567}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="5391501" y="857250"/>
+            <a:ext cx="9525" cy="676275"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="TextBox 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E51AC07-2976-9F9E-5F53-2195D9EB25BB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5236870" y="573316"/>
+            <a:ext cx="351058" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>Q1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>340702</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>691760</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>163390</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="Group 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4FD2141-46AB-2EB3-9ABA-D3826F5B8EAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9567528" y="0"/>
+          <a:ext cx="351058" cy="925390"/>
+          <a:chOff x="9567528" y="553915"/>
+          <a:chExt cx="351058" cy="942975"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="4" name="Straight Arrow Connector 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C2A3712-77FB-4685-8C45-391CCB63A3A7}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="9748503" y="820615"/>
+            <a:ext cx="9525" cy="676275"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="TextBox 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB9FF29F-5FB3-451C-896D-79DFEB95501E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9567528" y="553915"/>
+            <a:ext cx="351058" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>Q2</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>602497</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>20292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>166707</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>4395</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="21" name="Group 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{643D73C0-0DEB-1E34-8E06-B283F8871784}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11403019" y="20292"/>
+          <a:ext cx="351058" cy="936603"/>
+          <a:chOff x="11403019" y="591792"/>
+          <a:chExt cx="351058" cy="936603"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38FEEB44-8463-4D85-8FF7-47978B655B48}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="11595494" y="852120"/>
+            <a:ext cx="0" cy="676275"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="TextBox 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B64F075-B552-4906-AC20-B67E3F46A0A9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11403019" y="591792"/>
+            <a:ext cx="351058" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>Q3</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>297760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>580372</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180816</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="22" name="Group 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD9BC28D-F88F-9215-106B-515180573F8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12671977" y="0"/>
+          <a:ext cx="1069460" cy="942816"/>
+          <a:chOff x="12671977" y="566944"/>
+          <a:chExt cx="1069460" cy="947372"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="9" name="Straight Arrow Connector 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF4D8DE8-0DD4-458F-8999-AE239A442FF6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="13145742" y="838041"/>
+            <a:ext cx="9525" cy="676275"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="10" name="TextBox 9">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4A528CD-502E-4584-B841-AB059602E960}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12671977" y="566944"/>
+            <a:ext cx="1069460" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>Standar Deviasi</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>298174</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>580786</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>11437</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="23" name="Group 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D781FF5-82B7-4D53-B617-982DDDD4BFA0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="6377609" y="2112065"/>
+          <a:ext cx="1069460" cy="947372"/>
+          <a:chOff x="12671977" y="566944"/>
+          <a:chExt cx="1069460" cy="947372"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E4EF4EC-D744-C806-4C49-2FF261E7A22B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="13145742" y="838041"/>
+            <a:ext cx="9525" cy="676275"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="25" name="TextBox 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEA1B427-4A6F-A24D-6FD1-02E9C6267A08}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="12671977" y="566944"/>
+            <a:ext cx="1069460" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>Standar Deviasi</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>593640</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>170782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>157851</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>178491</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="Group 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6030C04-D151-4420-B33A-928A2A99EF88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7459923" y="2075782"/>
+          <a:ext cx="351058" cy="960209"/>
+          <a:chOff x="5236870" y="573316"/>
+          <a:chExt cx="351058" cy="960209"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEA6FF28-308B-04B6-3E74-7C8807D95E46}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="5391501" y="857250"/>
+            <a:ext cx="9525" cy="676275"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="28" name="TextBox 27">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCBF79B6-EAD8-BEF8-13B3-98287029DB7E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5236870" y="573316"/>
+            <a:ext cx="351058" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>Q1</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314739</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>8282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>665797</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>189257</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="29" name="Group 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{280DC789-A942-4BA7-B28E-C0A13993D5A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9541565" y="2103782"/>
+          <a:ext cx="351058" cy="942975"/>
+          <a:chOff x="9567528" y="553915"/>
+          <a:chExt cx="351058" cy="942975"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="30" name="Straight Arrow Connector 29">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC23FD50-2B0C-8E0D-CF73-3643A0A4FED0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="9748503" y="820615"/>
+            <a:ext cx="9525" cy="676275"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="31" name="TextBox 30">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7345128D-B055-7700-9E62-3FA3B6C5F075}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9567528" y="553915"/>
+            <a:ext cx="351058" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>Q2</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>564397</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>40170</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>128607</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>24273</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="32" name="Group 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF2CE176-4FBC-4782-85FF-77C385C680A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="11364919" y="2135670"/>
+          <a:ext cx="351058" cy="936603"/>
+          <a:chOff x="11403019" y="591792"/>
+          <a:chExt cx="351058" cy="936603"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F21FB70C-0F91-CEC9-1758-4D87E64830A3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1" flipV="1">
+            <a:off x="11595494" y="852120"/>
+            <a:ext cx="0" cy="676275"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="34" name="TextBox 33">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E969FB1-13DB-337A-D97D-227D68E02A63}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="11403019" y="591792"/>
+            <a:ext cx="351058" cy="264560"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:spAutoFit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>Q3</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1221,214 +2241,290 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3DEDF9F-DBC7-4BBE-9C20-81D542DB0F44}">
-  <dimension ref="B9:N26"/>
+  <dimension ref="B6:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="16.42578125" customWidth="1"/>
+    <col min="6" max="16" width="11.85546875" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" customWidth="1"/>
+    <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D9" s="3">
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F6">
+        <v>-1000</v>
+      </c>
+      <c r="G6" s="3">
         <v>1000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="H6" s="3">
         <v>2000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="I6" s="3">
         <v>5000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="J6" s="3">
         <v>6500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="K6" s="3">
         <v>6500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L6" s="3">
         <v>6500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M6" s="3">
         <v>7000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N6" s="3">
         <v>8500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O6" s="3">
         <v>9000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P6" s="3">
         <v>10500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="Q6" s="5">
         <v>150000000</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="4">
+        <f>AVERAGE(G6:Q6)</f>
+        <v>13642045.454545455</v>
+      </c>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="3">
+        <f>MEDIAN(G6:Q6)</f>
+        <v>6500</v>
+      </c>
+      <c r="D8" s="9">
+        <f>(1.4862*C8)*3</f>
+        <v>28980.899999999998</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="4">
+        <f>_xlfn.STDEV.S((G6:Q6))</f>
+        <v>45224817.327687763</v>
+      </c>
+      <c r="D9" s="4">
+        <f>C9*3</f>
+        <v>135674451.98306328</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3">
+        <f>_xlfn.QUARTILE.INC(G6:Q6,1)</f>
+        <v>5750</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="10">
+        <f>C10-(1.5*D11)</f>
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3">
+        <f>_xlfn.QUARTILE.INC(G6:Q6,2)</f>
+        <v>6500</v>
+      </c>
+      <c r="D11" s="3">
+        <f>C12-C10</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="3">
+        <f>_xlfn.QUARTILE.INC(G6:Q6,3)</f>
+        <v>8750</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="10">
+        <f>C12+(1.5*D11)</f>
+        <v>13250</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3">
+        <f>_xlfn.MODE.SNGL(G6:Q6)</f>
+        <v>6500</v>
+      </c>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>1000</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="I17" s="3">
+        <v>5000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>6500</v>
+      </c>
+      <c r="K17" s="3">
+        <v>6500</v>
+      </c>
+      <c r="L17" s="3">
+        <v>6500</v>
+      </c>
+      <c r="M17" s="3">
+        <v>7000</v>
+      </c>
+      <c r="N17" s="3">
+        <v>8500</v>
+      </c>
+      <c r="O17" s="3">
+        <v>9000</v>
+      </c>
+      <c r="P17" s="3">
+        <v>10500</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="3">
-        <f>AVERAGE(D9:N9)</f>
-        <v>13642045.454545455</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="C18" s="4">
+        <f>AVERAGE(G17:Q17)</f>
+        <v>7045.454545454545</v>
+      </c>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="3">
-        <f>MEDIAN(D9:N9)</f>
+      <c r="C19" s="3">
+        <f>MEDIAN(G17:Q17)</f>
         <v>6500</v>
       </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="3">
-        <f>_xlfn.STDEV.S((D9:N9))</f>
-        <v>45224817.327687763</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="C20" s="4">
+        <f>_xlfn.STDEV.S((G17:Q17))</f>
+        <v>3850.0295158254662</v>
+      </c>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="3">
-        <f>_xlfn.QUARTILE.INC(D9:N9,1)</f>
+      <c r="C21" s="3">
+        <f>_xlfn.QUARTILE.INC(G17:Q17,1)</f>
         <v>5750</v>
       </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="3">
-        <f>_xlfn.QUARTILE.INC(D9:N9,2)</f>
+      <c r="C22" s="3">
+        <f>_xlfn.QUARTILE.INC(G17:Q17,2)</f>
         <v>6500</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="3">
-        <f>_xlfn.QUARTILE.INC(D9:N9,3)</f>
+      <c r="C23" s="3">
+        <f>_xlfn.QUARTILE.INC(G17:Q17,3)</f>
         <v>8750</v>
       </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B24" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="3">
-        <f>_xlfn.MODE.SNGL(D9:N9)</f>
+      <c r="C24" s="3">
+        <f>_xlfn.MODE.SNGL(G17:Q17)</f>
         <v>6500</v>
       </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D19" s="3">
-        <v>1000</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F19" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G19" s="3">
-        <v>6500</v>
-      </c>
-      <c r="H19" s="3">
-        <v>6500</v>
-      </c>
-      <c r="I19" s="3">
-        <v>6500</v>
-      </c>
-      <c r="J19" s="3">
-        <v>7000</v>
-      </c>
-      <c r="K19" s="3">
-        <v>8500</v>
-      </c>
-      <c r="L19" s="3">
-        <v>9000</v>
-      </c>
-      <c r="M19" s="3">
-        <v>10500</v>
-      </c>
-      <c r="N19" s="3">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="3">
-        <f>AVERAGE(D19:N19)</f>
-        <v>7045.454545454545</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="3">
-        <f>MEDIAN(D19:N19)</f>
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="3">
-        <f>_xlfn.STDEV.S((D19:N19))</f>
-        <v>3850.0295158254662</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="3">
-        <f>_xlfn.QUARTILE.INC(D19:N19,1)</f>
-        <v>5750</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="3">
-        <f>_xlfn.QUARTILE.INC(D19:N19,2)</f>
-        <v>6500</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="3">
-        <f>_xlfn.QUARTILE.INC(D19:N19,3)</f>
-        <v>8750</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="3">
-        <f>_xlfn.MODE.SNGL(D19:N19)</f>
-        <v>6500</v>
+      <c r="D24" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF36CA2-E091-4AA0-84A3-33CA200743AC}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
